--- a/Transition_Plan_GPDPPM.xlsx
+++ b/Transition_Plan_GPDPPM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\i2e exit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All_Projects\GPDPPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A0FA0BC-BD82-49A6-B2AE-8D9F11D699C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74D1434-9EA6-4E36-8CC4-7948CE1C4FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F753E268-D5BC-4191-8787-665A0C9556CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28215" windowHeight="15840" xr2:uid="{F753E268-D5BC-4191-8787-665A0C9556CE}"/>
   </bookViews>
   <sheets>
     <sheet name="KT For GPDPPM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Key information to be transferred</t>
   </si>
@@ -93,35 +93,149 @@
     <t>GPD ALLIANCE PROJECT</t>
   </si>
   <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>Dataiku</t>
+    <t>Avinash Gopinath</t>
+  </si>
+  <si>
+    <t>Sharukh Malik</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>GPD_SPA_TRACKER</t>
+  </si>
+  <si>
+    <t>https://dss-amer-dev.pfizer.com/projects/GPDPPM_ALLIANCE_PROJECTS/flow/</t>
+  </si>
+  <si>
+    <t>https://dss-amer-dev.pfizer.com/projects/GPD_SPA_TRACKER/flow/</t>
+  </si>
+  <si>
+    <t>Dataiku Platform</t>
+  </si>
+  <si>
+    <t>GLB_ALL_DATA_SET</t>
+  </si>
+  <si>
+    <t>https://dss-amer-dev.pfizer.com/projects/GLBALLDATASET/flow/</t>
   </si>
   <si>
     <t>GMP and WRD Dashboard Projects
 1. Detailed walk through of the flows/ Data Pipeline (ETL).
 2. Detailed walk through of Python Code for each flows/ Data Pipeline (ETL).
-3. Detailed walk through of jobs being scheduled for each flows/ Data Pipeline (ETL).</t>
-  </si>
-  <si>
-    <t>Team call (Recorded Session)</t>
-  </si>
-  <si>
-    <t>Avinash Gopinath</t>
-  </si>
-  <si>
-    <t>Sharukh Malik</t>
-  </si>
-  <si>
-    <t>Completed</t>
+3. Detailed walk through of jobs being scheduled for each flows/ Data Pipeline (ETL).
+4. Understanding of Bussiness Usage/ End User.
+5. Basic Domain Knowledge.</t>
+  </si>
+  <si>
+    <t>ALLDATA Prod. and ALLDATA Dev. flows.
+1. Detailed walk through of the flows/ Data Pipeline (ETL).
+2. Detailed walk through of Python Code for each flows/ Data Pipeline (ETL).
+3. Detailed walk through of jobs being scheduled for each flows/ Data Pipeline (ETL).
+4. Understanding of Bussiness Usage/ End User.
+5. Basic Domain Knowledge.</t>
+  </si>
+  <si>
+    <t>Portfolio and Study Data flows.
+1. Detailed walk through of the flows/ Data Pipeline (ETL).
+2. Detailed walk through of Python Code for each flows/ Data Pipeline (ETL).
+3. Detailed walk through of jobs being scheduled for each flows/ Data Pipeline (ETL).
+4. Understanding of Bussiness Usage/ End User.
+5. Basic Domain Knowledge.</t>
+  </si>
+  <si>
+    <t>PROD_GBL_DAI_IDASH</t>
+  </si>
+  <si>
+    <t>https://dss-amer-dev.pfizer.com/projects/GBL_DAI_IDASH/flow/</t>
+  </si>
+  <si>
+    <t>Multiple Flows generating Json files.
+1. Detailed walk through of the flows/ Data Pipeline (ETL).
+2. Detailed walk through of Python Code for each flows/ Data Pipeline (ETL).
+3. Detailed walk through of jobs being scheduled for each flows/ Data Pipeline (ETL).
+4. Understanding of Bussiness Usage/ End User.
+5. Basic Domain Knowledge.</t>
+  </si>
+  <si>
+    <t>GLB_ONESRC_ETL</t>
+  </si>
+  <si>
+    <t>https://dss-amer-dev.pfizer.com/projects/GLBONESRCETL/flow/</t>
+  </si>
+  <si>
+    <t>Portfolio, Study and Dropped study &amp; project Data flows.
+1. Detailed walk through of the flows/ Data Pipeline (ETL).
+2. Detailed walk through of Python Code for each flows/ Data Pipeline (ETL).
+3. Detailed walk through of jobs being scheduled for each flows/ Data Pipeline (ETL).
+4. Understanding of Bussiness Usage/ End User.
+5. Basic Domain Knowledge.</t>
+  </si>
+  <si>
+    <t>GPD PDA ANALYTICS</t>
+  </si>
+  <si>
+    <t>https://dss-amer-dev.pfizer.com/projects/GPDPDAANALYTICS/flow/</t>
+  </si>
+  <si>
+    <t>PDA Extract Dashboards Project
+1. Detailed walk through of the flows/ Data Pipeline (ETL).
+2. Detailed walk through of Python Code for each flows/ Data Pipeline (ETL).
+3. Detailed walk through of jobs being scheduled for each flows/ Data Pipeline (ETL).
+4. Understanding of Bussiness Usage/ End User.
+5. Basic Domain Knowledge.</t>
+  </si>
+  <si>
+    <t>PROD GPD CYCLE TIME METRICS</t>
+  </si>
+  <si>
+    <t>https://dss-amer-dev.pfizer.com/projects/GPDCYCLETIMEMETRICS/flow/</t>
+  </si>
+  <si>
+    <t>CS To FIH, P2P adn Pre-POC project Data flows.
+1. Detailed walk through of the flows/ Data Pipeline (ETL).
+2. Detailed walk through of Python Code for each flows/ Data Pipeline (ETL).
+3. Detailed walk through of jobs being scheduled for each flows/ Data Pipeline (ETL).
+4. Understanding of Bussiness Usage/ End User.
+5. Basic Domain Knowledge.</t>
+  </si>
+  <si>
+    <t>Teams call (Recorded Session)</t>
+  </si>
+  <si>
+    <t>GLB DAI ONESOURCE</t>
+  </si>
+  <si>
+    <t>https://dss-amer-dev.pfizer.com/projects/GLBDAIONESOURCE/flow/</t>
+  </si>
+  <si>
+    <t>OneSource MIrror, PLW Mirror, LOP Daily and LOP Daily STG Data flows.
+1. Detailed walk through of the flows/ Data Pipeline (ETL).
+2. Detailed walk through of Python Code for each flows/ Data Pipeline (ETL).
+3. Detailed walk through of jobs being scheduled for each flows/ Data Pipeline (ETL).
+4. Understanding of Bussiness Usage/ End User.
+5. Basic Domain Knowledge.</t>
+  </si>
+  <si>
+    <t>GPD Forecast Engine</t>
+  </si>
+  <si>
+    <t>https://dss-amer-dev.pfizer.com/projects/GPDFORECASTENGINE/flow/</t>
+  </si>
+  <si>
+    <t>LOP and Scenario main Data flows.
+1. Detailed walk through of the flows/ Data Pipeline (ETL).
+2. Detailed walk through of Python Code for each flows/ Data Pipeline (ETL).
+3. Detailed walk through of jobs being scheduled for each flows/ Data Pipeline (ETL).
+4. Understanding of Bussiness Usage/ End User.
+5. Basic Domain Knowledge.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +247,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,10 +292,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -185,8 +308,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,32 +624,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B4239A-8965-4A54-B411-5ABEF1A85199}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="76.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -548,122 +673,242 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="6">
         <v>45175</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6">
+        <v>45176</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6">
+        <v>45176</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6">
+        <v>45177</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6">
+        <v>45180</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6">
+        <v>45181</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45181</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6">
+        <v>45182</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6">
+        <v>45183</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -674,7 +919,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -685,7 +930,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -696,7 +941,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -707,7 +952,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -718,7 +963,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -729,7 +974,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -740,7 +985,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -751,7 +996,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -762,7 +1007,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -773,7 +1018,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -784,7 +1029,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -795,7 +1040,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -806,7 +1051,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -817,7 +1062,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -828,7 +1073,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -839,7 +1084,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -850,7 +1095,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -861,7 +1106,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -872,9 +1117,31 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CA268C19-28AA-4B05-87E3-8A6F86FD5EC7}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D393C02B-C834-4B25-A27F-2ADF588D0A10}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{944DE566-C083-4AEE-A982-5A3A785A47DE}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{B640F7D3-EB0B-4CD2-AF47-1812764ED108}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{11FC3140-8EBC-4F8F-8E57-10446FF3DFD4}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{8F13BD14-1E2F-4DA3-9F05-7EEB00D4A455}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{03E1FD52-BC4A-4C38-8F12-00DA9618DD72}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{5613B1E8-A387-4C48-A15E-189DBCD219F4}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{835A23D4-36EB-4277-B74E-73941012AAF2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -886,13 +1153,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -900,7 +1167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -916,7 +1183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -924,7 +1191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,7 +1199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -940,7 +1207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -948,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
